--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-us\InputData\dist-heat\BFoHPbF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BFoHPbF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="50" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Source:</t>
   </si>
@@ -43,9 +48,6 @@
   </si>
   <si>
     <t>heat</t>
-  </si>
-  <si>
-    <t>Fraction used to generate heat</t>
   </si>
   <si>
     <t>steam coal</t>
@@ -126,9 +128,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -200,7 +202,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -320,7 +322,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A16:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -413,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,7 +450,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -668,7 +670,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -676,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -686,17 +688,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -723,18 +725,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>146127.9</v>
@@ -745,7 +747,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>6011.3</v>
@@ -756,7 +758,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>5190.8999999999996</v>
@@ -767,7 +769,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>3027.4</v>
@@ -778,7 +780,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>6541.8</v>
@@ -789,7 +791,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>6081.5</v>
@@ -800,7 +802,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>6652</v>
@@ -811,7 +813,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -822,29 +824,29 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>78.5</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>405.2</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2351.9</v>
@@ -855,7 +857,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -866,7 +868,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>2389.1999999999998</v>
@@ -877,10 +879,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -909,7 +911,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7">
         <v>2.6166086760836447E-3</v>
@@ -917,7 +919,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
@@ -933,9 +935,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AJ7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -943,23 +947,261 @@
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1" s="5">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1" s="5">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1" s="5">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1" s="5">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1" s="5">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1" s="5">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1" s="5">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1" s="5">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:AI2" si="0">D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f>AI2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -967,8 +1209,144 @@
         <f>GETPIVOTDATA("2014 Fuel Use (TJ)",Data!$A$16,"Model Energy Source","coal")</f>
         <v>0.8230075474311036</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f t="shared" ref="C3:D7" si="1">B3</f>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:AJ3" si="2">D3</f>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="2"/>
+        <v>0.8230075474311036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -976,8 +1354,144 @@
         <f>GETPIVOTDATA("2014 Fuel Use (TJ)",Data!$A$16,"Model Energy Source","natural gas")</f>
         <v>9.2568550062318233E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:AJ4" si="3">D4</f>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="3"/>
+        <v>9.2568550062318233E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -985,8 +1499,144 @@
         <f>GETPIVOTDATA("2014 Fuel Use (TJ)",Data!$A$16,"Model Energy Source","biomass")</f>
         <v>8.1807293830494399E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:AJ5" si="4">D5</f>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="4"/>
+        <v>8.1807293830494399E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -994,12 +1644,284 @@
         <f>GETPIVOTDATA("2014 Fuel Use (TJ)",Data!$A$16,"Model Energy Source","petroleum")</f>
         <v>2.6166086760836447E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:AJ6" si="5">D6</f>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="5"/>
+        <v>2.6166086760836447E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:AJ7" si="6">D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
